--- a/Tai-lieu/git-remote.xlsx
+++ b/Tai-lieu/git-remote.xlsx
@@ -4,17 +4,18 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Git" sheetId="1" r:id="rId1"/>
+    <sheet name="Thao tác" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="74">
   <si>
     <t>Truy cập git</t>
   </si>
@@ -235,6 +236,45 @@
   </si>
   <si>
     <t>Link</t>
+  </si>
+  <si>
+    <t>Thao tác commit lên git cho master</t>
+  </si>
+  <si>
+    <t>Bước 1</t>
+  </si>
+  <si>
+    <t>git remote add origin link-git</t>
+  </si>
+  <si>
+    <t>git add .</t>
+  </si>
+  <si>
+    <t>git commit -m &lt;ghi chú&gt;</t>
+  </si>
+  <si>
+    <t>git push origin master</t>
+  </si>
+  <si>
+    <t>Bước 2</t>
+  </si>
+  <si>
+    <t>Bước 3</t>
+  </si>
+  <si>
+    <t>Bước 4</t>
+  </si>
+  <si>
+    <t>Điều hướng đến projec trên git</t>
+  </si>
+  <si>
+    <t>Tạo các index ở local</t>
+  </si>
+  <si>
+    <t>Lưu các index ở local</t>
+  </si>
+  <si>
+    <t>Submit lên server</t>
   </si>
 </sst>
 </file>
@@ -674,8 +714,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="I64" sqref="I64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -994,4 +1034,68 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B3" t="s">
+        <v>63</v>
+      </c>
+      <c r="E3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>67</v>
+      </c>
+      <c r="B4" t="s">
+        <v>64</v>
+      </c>
+      <c r="E4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>68</v>
+      </c>
+      <c r="B5" t="s">
+        <v>65</v>
+      </c>
+      <c r="E5" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>69</v>
+      </c>
+      <c r="B6" t="s">
+        <v>66</v>
+      </c>
+      <c r="E6" t="s">
+        <v>73</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>